--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.8293625212978</v>
+        <v>25.59758166666667</v>
       </c>
       <c r="H2">
-        <v>17.8293625212978</v>
+        <v>76.792745</v>
       </c>
       <c r="I2">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240869</v>
       </c>
       <c r="J2">
-        <v>0.8110751760039542</v>
+        <v>0.7690757955240868</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>69.13306230785911</v>
+        <v>66.38494866666666</v>
       </c>
       <c r="N2">
-        <v>69.13306230785911</v>
+        <v>199.154846</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4171200956172241</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4171200956172242</v>
       </c>
       <c r="Q2">
-        <v>1232.598430094289</v>
+        <v>1699.294144932474</v>
       </c>
       <c r="R2">
-        <v>1232.598430094289</v>
+        <v>15293.64730439227</v>
       </c>
       <c r="S2">
-        <v>0.8110751760039542</v>
+        <v>0.3207969693658999</v>
       </c>
       <c r="T2">
-        <v>0.8110751760039542</v>
+        <v>0.3207969693658999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>25.59758166666667</v>
+      </c>
+      <c r="H3">
+        <v>76.792745</v>
+      </c>
+      <c r="I3">
+        <v>0.7690757955240869</v>
+      </c>
+      <c r="J3">
+        <v>0.7690757955240868</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>92.76573566666667</v>
+      </c>
+      <c r="N3">
+        <v>278.297207</v>
+      </c>
+      <c r="O3">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="P3">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="Q3">
+        <v>2374.578494595913</v>
+      </c>
+      <c r="R3">
+        <v>21371.20645136321</v>
+      </c>
+      <c r="S3">
+        <v>0.448278826158187</v>
+      </c>
+      <c r="T3">
+        <v>0.4482788261581869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.545858</v>
+      </c>
+      <c r="H4">
+        <v>1.637574</v>
+      </c>
+      <c r="I4">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J4">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>66.38494866666666</v>
+      </c>
+      <c r="N4">
+        <v>199.154846</v>
+      </c>
+      <c r="O4">
+        <v>0.4171200956172241</v>
+      </c>
+      <c r="P4">
+        <v>0.4171200956172242</v>
+      </c>
+      <c r="Q4">
+        <v>36.23675530928933</v>
+      </c>
+      <c r="R4">
+        <v>326.130797783604</v>
+      </c>
+      <c r="S4">
+        <v>0.006840864671687332</v>
+      </c>
+      <c r="T4">
+        <v>0.006840864671687332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.545858</v>
+      </c>
+      <c r="H5">
+        <v>1.637574</v>
+      </c>
+      <c r="I5">
+        <v>0.01640022800043886</v>
+      </c>
+      <c r="J5">
+        <v>0.01640022800043885</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>92.76573566666667</v>
+      </c>
+      <c r="N5">
+        <v>278.297207</v>
+      </c>
+      <c r="O5">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="P5">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="Q5">
+        <v>50.63691893953533</v>
+      </c>
+      <c r="R5">
+        <v>455.732270455818</v>
+      </c>
+      <c r="S5">
+        <v>0.009559363328751524</v>
+      </c>
+      <c r="T5">
+        <v>0.009559363328751522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H6">
+        <v>17.63395</v>
+      </c>
+      <c r="I6">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J6">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>66.38494866666666</v>
+      </c>
+      <c r="N6">
+        <v>199.154846</v>
+      </c>
+      <c r="O6">
+        <v>0.4171200956172241</v>
+      </c>
+      <c r="P6">
+        <v>0.4171200956172242</v>
+      </c>
+      <c r="Q6">
+        <v>390.2096218468555</v>
+      </c>
+      <c r="R6">
+        <v>3511.886596621699</v>
+      </c>
+      <c r="S6">
+        <v>0.07366474161002852</v>
+      </c>
+      <c r="T6">
+        <v>0.07366474161002851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.877983333333333</v>
+      </c>
+      <c r="H7">
+        <v>17.63395</v>
+      </c>
+      <c r="I7">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="J7">
+        <v>0.1766031950607049</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>92.76573566666667</v>
+      </c>
+      <c r="N7">
+        <v>278.297207</v>
+      </c>
+      <c r="O7">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="P7">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="Q7">
+        <v>545.2754481530723</v>
+      </c>
+      <c r="R7">
+        <v>4907.47903337765</v>
+      </c>
+      <c r="S7">
+        <v>0.1029384534506764</v>
+      </c>
+      <c r="T7">
+        <v>0.1029384534506764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.15301722448655</v>
-      </c>
-      <c r="H3">
-        <v>4.15301722448655</v>
-      </c>
-      <c r="I3">
-        <v>0.1889248239960458</v>
-      </c>
-      <c r="J3">
-        <v>0.1889248239960458</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>69.13306230785911</v>
-      </c>
-      <c r="N3">
-        <v>69.13306230785911</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>287.1107985460408</v>
-      </c>
-      <c r="R3">
-        <v>287.1107985460408</v>
-      </c>
-      <c r="S3">
-        <v>0.1889248239960458</v>
-      </c>
-      <c r="T3">
-        <v>0.1889248239960458</v>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.786416</v>
+      </c>
+      <c r="I8">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J8">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>66.38494866666666</v>
+      </c>
+      <c r="N8">
+        <v>199.154846</v>
+      </c>
+      <c r="O8">
+        <v>0.4171200956172241</v>
+      </c>
+      <c r="P8">
+        <v>0.4171200956172242</v>
+      </c>
+      <c r="Q8">
+        <v>83.78701059688177</v>
+      </c>
+      <c r="R8">
+        <v>754.083095371936</v>
+      </c>
+      <c r="S8">
+        <v>0.0158175199696085</v>
+      </c>
+      <c r="T8">
+        <v>0.0158175199696085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.262138666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.786416</v>
+      </c>
+      <c r="I9">
+        <v>0.03792078141476947</v>
+      </c>
+      <c r="J9">
+        <v>0.03792078141476946</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>92.76573566666667</v>
+      </c>
+      <c r="N9">
+        <v>278.297207</v>
+      </c>
+      <c r="O9">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="P9">
+        <v>0.5828799043827758</v>
+      </c>
+      <c r="Q9">
+        <v>117.0832219266791</v>
+      </c>
+      <c r="R9">
+        <v>1053.748997340112</v>
+      </c>
+      <c r="S9">
+        <v>0.02210326144516097</v>
+      </c>
+      <c r="T9">
+        <v>0.02210326144516097</v>
       </c>
     </row>
   </sheetData>
